--- a/Assets/06.Table/NewGachaTable.xlsx
+++ b/Assets/06.Table/NewGachaTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3C49A-18FF-4595-A080-CACF70017D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CEE96-8F8A-4CD1-989E-6BDE1D462E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewGachaTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>신물 반지1</t>
+  </si>
+  <si>
+    <t>Exchage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,12 +837,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AA28" sqref="AA28"/>
+      <selection pane="bottomLeft" activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +866,7 @@
     <col min="27" max="27" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -947,8 +951,11 @@
       <c r="AB1" t="s">
         <v>81</v>
       </c>
+      <c r="AC1" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1033,8 +1040,11 @@
       <c r="AB2" s="11">
         <v>0</v>
       </c>
+      <c r="AC2" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1119,8 +1129,11 @@
       <c r="AB3" s="11">
         <v>1</v>
       </c>
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1205,8 +1218,11 @@
       <c r="AB4" s="11">
         <v>2</v>
       </c>
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1291,8 +1307,11 @@
       <c r="AB5" s="11">
         <v>3</v>
       </c>
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1377,8 +1396,11 @@
       <c r="AB6" s="11">
         <v>4</v>
       </c>
+      <c r="AC6" s="2">
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1463,8 +1485,11 @@
       <c r="AB7" s="11">
         <v>5</v>
       </c>
+      <c r="AC7" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1549,8 +1574,11 @@
       <c r="AB8" s="11">
         <v>6</v>
       </c>
+      <c r="AC8" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1635,8 +1663,11 @@
       <c r="AB9" s="11">
         <v>7</v>
       </c>
+      <c r="AC9" s="2">
+        <v>440</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1721,8 +1752,11 @@
       <c r="AB10" s="11">
         <v>8</v>
       </c>
+      <c r="AC10" s="11">
+        <v>1250</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1807,8 +1841,11 @@
       <c r="AB11" s="11">
         <v>9</v>
       </c>
+      <c r="AC11" s="11">
+        <v>1667</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1893,8 +1930,11 @@
       <c r="AB12" s="11">
         <v>10</v>
       </c>
+      <c r="AC12" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1979,8 +2019,11 @@
       <c r="AB13" s="11">
         <v>11</v>
       </c>
+      <c r="AC13" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2065,8 +2108,11 @@
       <c r="AB14" s="11">
         <v>12</v>
       </c>
+      <c r="AC14">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2151,8 +2197,11 @@
       <c r="AB15" s="11">
         <v>13</v>
       </c>
+      <c r="AC15">
+        <v>13334</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2237,8 +2286,11 @@
       <c r="AB16" s="11">
         <v>14</v>
       </c>
+      <c r="AC16">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2323,8 +2375,11 @@
       <c r="AB17" s="11">
         <v>15</v>
       </c>
+      <c r="AC17" s="2">
+        <v>40000</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2409,8 +2464,11 @@
       <c r="AB18" s="11">
         <v>16</v>
       </c>
+      <c r="AC18" s="9">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2495,8 +2553,11 @@
       <c r="AB19" s="11">
         <v>17</v>
       </c>
+      <c r="AC19" s="11">
+        <v>160000</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2581,8 +2642,11 @@
       <c r="AB20" s="11">
         <v>18</v>
       </c>
+      <c r="AC20" s="11">
+        <v>266667</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2667,8 +2731,11 @@
       <c r="AB21" s="11">
         <v>19</v>
       </c>
+      <c r="AC21" s="11">
+        <v>800000</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2753,8 +2820,11 @@
       <c r="AB22" s="11">
         <v>20</v>
       </c>
+      <c r="AC22">
+        <v>3200000</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2839,8 +2909,11 @@
       <c r="AB23" s="11">
         <v>21</v>
       </c>
+      <c r="AC23">
+        <v>6400000</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2925,8 +2998,11 @@
       <c r="AB24" s="11">
         <v>22</v>
       </c>
+      <c r="AC24">
+        <v>12800000</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3011,8 +3087,11 @@
       <c r="AB25" s="11">
         <v>23</v>
       </c>
+      <c r="AC25">
+        <v>25600000</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3097,8 +3176,11 @@
       <c r="AB26" s="11">
         <v>24</v>
       </c>
+      <c r="AC26">
+        <v>51200000</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3183,8 +3265,11 @@
       <c r="AB27" s="11">
         <v>25</v>
       </c>
+      <c r="AC27">
+        <v>102400000</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3269,8 +3354,11 @@
       <c r="AB28" s="11">
         <v>26</v>
       </c>
+      <c r="AC28">
+        <v>204800000</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3354,6 +3442,9 @@
       </c>
       <c r="AB29" s="11">
         <v>27</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
